--- a/data/completo/TestPrecision.xlsx
+++ b/data/completo/TestPrecision.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NoGravity" sheetId="1" r:id="rId1"/>
     <sheet name="NoGravityOS" sheetId="2" r:id="rId2"/>
     <sheet name="Linear" sheetId="3" r:id="rId3"/>
     <sheet name="LinearOS" sheetId="4" r:id="rId4"/>
+    <sheet name="Mitzell" sheetId="5" r:id="rId5"/>
+    <sheet name="MitzellOS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
   <si>
     <t>File</t>
   </si>
@@ -146,6 +148,9 @@
   <si>
     <t>100LinearOS.arff</t>
   </si>
+  <si>
+    <t>Consufion Matrix</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +160,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -176,12 +181,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Trebuchet MS Bold"/>
     </font>
     <font>
       <sz val="11"/>
@@ -599,7 +598,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -611,178 +610,208 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,11 +1250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1641852800"/>
-        <c:axId val="1641857696"/>
+        <c:axId val="-496981536"/>
+        <c:axId val="-496988064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1641852800"/>
+        <c:axId val="-496981536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1296,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1641857696"/>
+        <c:crossAx val="-496988064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1275,7 +1304,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1641857696"/>
+        <c:axId val="-496988064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1353,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1641852800"/>
+        <c:crossAx val="-496981536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1756,11 +1785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1641863680"/>
-        <c:axId val="1641866400"/>
+        <c:axId val="-496976640"/>
+        <c:axId val="-496976096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1641863680"/>
+        <c:axId val="-496976640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1831,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1641866400"/>
+        <c:crossAx val="-496976096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1810,7 +1839,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1641866400"/>
+        <c:axId val="-496976096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,7 +1888,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1641863680"/>
+        <c:crossAx val="-496976640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2268,11 +2297,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="6.59765625" style="1" customWidth="1"/>
@@ -2283,15 +2312,15 @@
     <col min="9" max="256" width="6.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2303,919 +2332,919 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16">
+    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13">
         <v>1461</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>30</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>59</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="14">
         <f>AVERAGE(F2:F4)</f>
         <v>0.45166666666666666</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="13">
         <v>0.90700000000000003</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <v>0.94299999999999995</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>67</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>8</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>6</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <f>AVERAGE(G2:G4)</f>
         <v>0.41599999999999998</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17">
         <v>82</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>3</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>22</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20">
+      <c r="E4" s="18"/>
+      <c r="F4" s="17">
         <v>0.253</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="19">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21">
         <v>1420</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="21">
         <v>36</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>80</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <f>AVERAGE(F5:F7)</f>
         <v>0.45300000000000001</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>0.91300000000000003</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="23">
         <v>0.92400000000000004</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>58</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>8</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>6</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <f>AVERAGE(G5:G7)</f>
         <v>0.442</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <v>0.16300000000000001</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="24">
         <v>0.111</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
         <v>78</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>5</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>34</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20">
+      <c r="E7" s="18"/>
+      <c r="F7" s="17">
         <v>0.28299999999999997</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="19">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21">
         <v>876</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="21">
         <v>46</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>26</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <f>AVERAGE(F8:F10)</f>
         <v>0.50900000000000001</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="21">
         <v>0.91300000000000003</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="23">
         <v>0.92100000000000004</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>50</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>9</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>5</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <f>AVERAGE(G8:G10)</f>
         <v>0.49500000000000005</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>0.14499999999999999</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="24">
         <v>0.14099999999999999</v>
       </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17">
         <v>34</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>7</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>30</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20">
+      <c r="E10" s="18"/>
+      <c r="F10" s="17">
         <v>0.46899999999999997</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="19">
         <v>0.42299999999999999</v>
       </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21">
         <v>848</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="21">
         <v>41</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>34</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <f>AVERAGE(F11:F13)</f>
         <v>0.505</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="21">
         <v>0.90900000000000003</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="23">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <v>56</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>13</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="13">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="14">
         <f>AVERAGE(G11:G13)</f>
         <v>0.5</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>0.21299999999999999</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="24">
         <v>0.18099999999999999</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
         <v>29</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>7</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>24</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20">
+      <c r="E13" s="18"/>
+      <c r="F13" s="17">
         <v>0.39300000000000002</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <v>0.4</v>
       </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21">
         <v>858</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="21">
         <v>45</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>30</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <f>AVERAGE(F14:F16)</f>
         <v>0.54666666666666675</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <v>0.92300000000000004</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="23">
         <v>0.92</v>
       </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>49</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>13</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>4</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <f>AVERAGE(G14:G16)</f>
         <v>0.56866666666666665</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <v>0.224</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="24">
         <v>0.19700000000000001</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17">
         <v>23</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>0</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="17">
         <v>33</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20">
+      <c r="E16" s="18"/>
+      <c r="F16" s="17">
         <v>0.49299999999999999</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="19">
         <v>0.58899999999999997</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21">
         <v>645</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="21">
         <v>17</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="21">
         <v>25</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="22">
         <f>AVERAGE(F17:F19)</f>
         <v>0.64133333333333331</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="21">
         <v>0.94099999999999995</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="23">
         <v>0.94</v>
       </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>22</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>14</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="13">
         <v>0</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <f>AVERAGE(G17:G19)</f>
         <v>0.6429999999999999</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="13">
         <v>0.438</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="24">
         <v>0.38900000000000001</v>
       </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
         <v>19</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="17">
         <v>1</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="17">
         <v>30</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20">
+      <c r="E19" s="16"/>
+      <c r="F19" s="17">
         <v>0.54500000000000004</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="25">
         <v>0.6</v>
       </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27">
         <v>29</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="27">
         <v>3</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="27">
         <v>1</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="28">
         <f>AVERAGE(F20:F22)</f>
         <v>0.45966666666666667</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="27">
         <v>0.879</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="27">
         <v>0.879</v>
       </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="32" t="s">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="30">
         <v>1</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="30">
         <v>0</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="30">
         <v>0</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="31">
         <f>AVERAGE(G20:G22)</f>
         <v>0.37633333333333335</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="30">
         <v>0</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="30">
         <v>0</v>
       </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33">
         <v>3</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="33">
         <v>0</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="33">
         <v>1</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36">
+      <c r="E22" s="32"/>
+      <c r="F22" s="33">
         <v>0.5</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="33">
         <v>0.25</v>
       </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="39" t="s">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="16">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="13">
         <v>222</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <v>21</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="13">
         <v>17</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="48">
+      <c r="E26" s="12"/>
+      <c r="F26" s="41">
         <v>0.84099999999999997</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="24">
         <v>0.85399999999999998</v>
       </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="13">
         <v>18</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="13">
         <v>6</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="13">
         <v>11</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16">
+      <c r="E27" s="12"/>
+      <c r="F27" s="13">
         <v>0.17599999999999999</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="24">
         <v>0.17100000000000001</v>
       </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="20">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="42"/>
+      <c r="B28" s="17">
         <v>24</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="17">
         <v>7</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="17">
         <v>23</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20">
+      <c r="E28" s="16"/>
+      <c r="F28" s="17">
         <v>0.45100000000000001</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="19">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="24">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="21">
         <v>206</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="21">
         <v>12</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="21">
         <v>23</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24">
+      <c r="E29" s="20"/>
+      <c r="F29" s="21">
         <v>0.85499999999999998</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="23">
         <v>0.85499999999999998</v>
       </c>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="18" t="s">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="13">
         <v>15</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>10</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="13">
         <v>6</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16">
+      <c r="E30" s="12"/>
+      <c r="F30" s="13">
         <v>0.27800000000000002</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="24">
         <v>0.32300000000000001</v>
       </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="20">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
+      <c r="B31" s="17">
         <v>20</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="17">
         <v>14</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="17">
         <v>9</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20">
+      <c r="E31" s="16"/>
+      <c r="F31" s="17">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="19">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="24">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="21">
         <v>164</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="21">
         <v>14</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="21">
         <v>13</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24">
+      <c r="E32" s="20"/>
+      <c r="F32" s="21">
         <v>0.89900000000000002</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="23">
         <v>0.86199999999999999</v>
       </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="18" t="s">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="13">
         <v>6</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="13">
         <v>12</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="13">
         <v>6</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16">
+      <c r="E33" s="12"/>
+      <c r="F33" s="13">
         <v>0.375</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="24">
         <v>0.5</v>
       </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="20">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="42"/>
+      <c r="B34" s="17">
         <v>13</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="17">
         <v>6</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="17">
         <v>21</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20">
+      <c r="E34" s="16"/>
+      <c r="F34" s="17">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="19">
         <v>0.52500000000000002</v>
       </c>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="24">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="21">
         <v>154</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="21">
         <v>8</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="21">
         <v>4</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24">
+      <c r="E35" s="20"/>
+      <c r="F35" s="21">
         <v>0.90100000000000002</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="23">
         <v>0.92800000000000005</v>
       </c>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="18" t="s">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="13">
         <v>11</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="13">
         <v>16</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="13">
         <v>6</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16">
+      <c r="E36" s="12"/>
+      <c r="F36" s="13">
         <v>0.64</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="24">
         <v>0.48499999999999999</v>
       </c>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="20">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="42"/>
+      <c r="B37" s="17">
         <v>6</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="17">
         <v>1</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="17">
         <v>3</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20">
+      <c r="E37" s="16"/>
+      <c r="F37" s="17">
         <v>0.23100000000000001</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="19">
         <v>0.3</v>
       </c>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A38" s="50"/>
-      <c r="B38" s="24">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="21">
         <v>150</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="21">
         <v>10</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="21">
         <v>0</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24">
+      <c r="E38" s="20"/>
+      <c r="F38" s="21">
         <v>0.94899999999999995</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="23">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="18" t="s">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="13">
         <v>7</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="13">
         <v>18</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="13">
         <v>0</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16">
+      <c r="E39" s="12"/>
+      <c r="F39" s="13">
         <v>0.56299999999999994</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="24">
         <v>0.72</v>
       </c>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="20">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="42"/>
+      <c r="B40" s="17">
         <v>1</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="17">
         <v>4</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="17">
         <v>1</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20">
+      <c r="E40" s="16"/>
+      <c r="F40" s="17">
         <v>1</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="19">
         <v>0.16700000000000001</v>
       </c>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="24">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="21">
         <v>113</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="21">
         <v>6</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="21">
         <v>4</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24">
+      <c r="E41" s="20"/>
+      <c r="F41" s="21">
         <v>0.95799999999999996</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="23">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="18" t="s">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="13">
         <v>4</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="13">
         <v>12</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="13">
         <v>3</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16">
+      <c r="E42" s="12"/>
+      <c r="F42" s="13">
         <v>0.66700000000000004</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="24">
         <v>0.63200000000000001</v>
       </c>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="20">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="42"/>
+      <c r="B43" s="17">
         <v>1</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="17">
         <v>0</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="17">
         <v>3</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20">
+      <c r="E43" s="16"/>
+      <c r="F43" s="17">
         <v>0.3</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="19">
         <v>0.75</v>
       </c>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="16" t="s">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="10"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3236,11 +3265,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.8984375" style="4" customWidth="1"/>
     <col min="2" max="2" width="7" style="4" customWidth="1"/>
@@ -3249,565 +3278,565 @@
     <col min="8" max="256" width="6.59765625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="55"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <v>1452</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>98</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <f>(B2+C3)/SUM(B2:C3)</f>
         <v>0.85960874568469503</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>0.90900000000000003</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="13">
         <v>0.93700000000000006</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17">
         <v>146</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>42</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20">
+      <c r="D3" s="18"/>
+      <c r="E3" s="17">
         <v>0.3</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="19">
         <v>0.223</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>1439</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="21">
         <v>97</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <f>(B4+C5)/SUM(B4:C5)</f>
         <v>0.85855072463768112</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>0.90700000000000003</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="82">
         <v>0.93700000000000006</v>
       </c>
-      <c r="G4" s="62"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>147</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>42</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20">
+      <c r="D5" s="18"/>
+      <c r="E5" s="17">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <v>0.222</v>
       </c>
-      <c r="G5" s="62"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A6" s="95" t="s">
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>894</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>57</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <f>(B6+C7)/SUM(B6:C7)</f>
         <v>0.86003683241252304</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>0.90400000000000003</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="82">
         <v>0.94</v>
       </c>
-      <c r="G6" s="62"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20">
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
         <v>95</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>40</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20">
+      <c r="D7" s="18"/>
+      <c r="E7" s="17">
         <v>0.41199999999999998</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <v>0.29599999999999999</v>
       </c>
-      <c r="G7" s="62"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A8" s="95" t="s">
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>867</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="21">
         <v>56</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <f>(B8+C9)/SUM(B8:C9)</f>
         <v>0.85687203791469191</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>0.90100000000000002</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="82">
         <v>0.93899999999999995</v>
       </c>
-      <c r="G8" s="62"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20">
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
         <v>95</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>37</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="20">
+      <c r="D9" s="18"/>
+      <c r="E9" s="17">
         <v>0.39800000000000002</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A10" s="95" t="s">
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>863</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="21">
         <v>70</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <f>(B10+C11)/SUM(B10:C11)</f>
         <v>0.85971563981042654</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>0.91700000000000004</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="82">
         <v>0.92500000000000004</v>
       </c>
-      <c r="G10" s="62"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20">
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <v>78</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>44</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20">
+      <c r="D11" s="18"/>
+      <c r="E11" s="17">
         <v>0.38600000000000001</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="25">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G11" s="62"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A12" s="95" t="s">
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>659</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="21">
         <v>37</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <f>(B12+C13)/SUM(B12:C13)</f>
         <v>0.88363171355498726</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>0.92400000000000004</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="82">
         <v>0.94699999999999995</v>
       </c>
-      <c r="G12" s="62"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20">
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
         <v>54</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>32</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20">
+      <c r="D13" s="18"/>
+      <c r="E13" s="17">
         <v>0.46400000000000002</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="25">
         <v>0.372</v>
       </c>
-      <c r="G13" s="62"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A14" s="95" t="s">
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <v>32</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="21">
         <v>1</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="22">
         <f>(B14+C15)/SUM(B14:C15)</f>
         <v>0.84210526315789469</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <v>0.86499999999999999</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F14" s="82">
         <v>0.97</v>
       </c>
-      <c r="G14" s="62"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20">
+      <c r="G14" s="52"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
         <v>5</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>0</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17">
         <v>0</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="25">
         <v>0</v>
       </c>
-      <c r="G15" s="62"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="62"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="56" t="s">
+      <c r="G15" s="52"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="52"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="62"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="56" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="62"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>227</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>33</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16">
+      <c r="D19" s="12"/>
+      <c r="E19" s="13">
         <v>0.84099999999999997</v>
       </c>
-      <c r="F19" s="94">
+      <c r="F19" s="80">
         <v>0.873</v>
       </c>
-      <c r="G19" s="62"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="49"/>
-      <c r="B20" s="20">
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="42"/>
+      <c r="B20" s="17">
         <v>43</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="17">
         <v>46</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17">
         <v>0.58199999999999996</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="25">
         <v>0.51700000000000002</v>
       </c>
-      <c r="G20" s="62"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A21" s="95" t="s">
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="21">
         <v>218</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="21">
         <v>23</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24">
+      <c r="D21" s="20"/>
+      <c r="E21" s="21">
         <v>0.86499999999999999</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="82">
         <v>0.90500000000000003</v>
       </c>
-      <c r="G21" s="62"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="49"/>
-      <c r="B22" s="20">
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="42"/>
+      <c r="B22" s="17">
         <v>34</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="17">
         <v>40</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17">
         <v>0.63500000000000001</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="25">
         <v>0.54100000000000004</v>
       </c>
-      <c r="G22" s="62"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A23" s="95" t="s">
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="21">
         <v>176</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="21">
         <v>20</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24">
+      <c r="D23" s="20"/>
+      <c r="E23" s="21">
         <v>0.81699999999999995</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F23" s="82">
         <v>0.89800000000000002</v>
       </c>
-      <c r="G23" s="62"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="20">
+      <c r="G23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="42"/>
+      <c r="B24" s="17">
         <v>26</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="17">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20">
+      <c r="D24" s="16"/>
+      <c r="E24" s="17">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="25">
         <v>0.59399999999999997</v>
       </c>
-      <c r="G24" s="62"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A25" s="95" t="s">
+      <c r="G24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="21">
         <v>153</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="21">
         <v>13</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24">
+      <c r="D25" s="20"/>
+      <c r="E25" s="21">
         <v>0.93899999999999995</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F25" s="82">
         <v>0.92200000000000004</v>
       </c>
-      <c r="G25" s="62"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="20">
+      <c r="G25" s="52"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="42"/>
+      <c r="B26" s="17">
         <v>10</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="17">
         <v>33</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20">
+      <c r="D26" s="16"/>
+      <c r="E26" s="17">
         <v>0.71699999999999997</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="25">
         <v>0.76700000000000002</v>
       </c>
-      <c r="G26" s="62"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A27" s="95" t="s">
+      <c r="G26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="21">
         <v>148</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="21">
         <v>12</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24">
+      <c r="D27" s="20"/>
+      <c r="E27" s="21">
         <v>0.92500000000000004</v>
       </c>
-      <c r="F27" s="96">
+      <c r="F27" s="82">
         <v>0.92500000000000004</v>
       </c>
-      <c r="G27" s="62"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="20">
+      <c r="G27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="42"/>
+      <c r="B28" s="17">
         <v>12</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="17">
         <v>19</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20">
+      <c r="D28" s="16"/>
+      <c r="E28" s="17">
         <v>0.61299999999999999</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="25">
         <v>0.61299999999999999</v>
       </c>
-      <c r="G28" s="62"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A29" s="95" t="s">
+      <c r="G28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="21">
         <v>117</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="21">
         <v>6</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24">
+      <c r="D29" s="20"/>
+      <c r="E29" s="21">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F29" s="96">
+      <c r="F29" s="82">
         <v>0.95099999999999996</v>
       </c>
-      <c r="G29" s="62"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="20">
+      <c r="G29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="42"/>
+      <c r="B30" s="17">
         <v>4</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="17">
         <v>19</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20">
+      <c r="D30" s="16"/>
+      <c r="E30" s="17">
         <v>0.76</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="25">
         <v>0.82599999999999996</v>
       </c>
-      <c r="G30" s="62"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A31" s="45" t="s">
+      <c r="G30" s="52"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="62"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3830,7 +3859,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="6.59765625" style="5" customWidth="1"/>
@@ -3838,825 +3867,825 @@
     <col min="9" max="256" width="6.59765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="63" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="11">
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="8">
         <v>1499</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>55</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>73</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <f>AVERAGE(F2:F4)</f>
         <v>0.4383333333333333</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <v>0.90200000000000002</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="11">
         <v>0.92100000000000004</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>60</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>13</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>3</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <f>AVERAGE(G2:G4)</f>
         <v>0.42300000000000004</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="11">
         <v>0.18099999999999999</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="11">
         <v>0.17100000000000001</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="86">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="72">
         <v>103</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="72">
         <v>4</v>
       </c>
-      <c r="D4" s="86">
+      <c r="D4" s="72">
         <v>23</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66">
         <v>0.23200000000000001</v>
       </c>
-      <c r="G4" s="80">
+      <c r="G4" s="66">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="87">
+    <row r="5" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69"/>
+      <c r="B5" s="73">
         <v>873</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="73">
         <v>30</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="73">
         <v>20</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="70">
         <f>AVERAGE(F5:F7)</f>
         <v>0.53766666666666663</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="70">
         <v>0.91300000000000003</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="71">
         <v>0.94599999999999995</v>
       </c>
-      <c r="H5" s="66"/>
-    </row>
-    <row r="6" spans="1:8" ht="15">
-      <c r="A6" s="63" t="s">
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>60</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>8</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>4</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <f>AVERAGE(G5:G7)</f>
         <v>0.5126666666666666</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>0.19</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="63">
         <v>0.111</v>
       </c>
-      <c r="H6" s="67"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="86">
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="72">
         <v>23</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="72">
         <v>4</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="72">
         <v>25</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80">
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
         <v>0.51</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="67">
         <v>0.48099999999999998</v>
       </c>
-      <c r="H7" s="67"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="87">
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69"/>
+      <c r="B8" s="73">
         <v>833</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="73">
         <v>45</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="73">
         <v>34</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="70">
         <f>AVERAGE(F8:F10)</f>
         <v>0.52733333333333332</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="70">
         <v>0.91100000000000003</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="71">
         <v>0.91300000000000003</v>
       </c>
-      <c r="H8" s="67"/>
-    </row>
-    <row r="9" spans="1:8" ht="15">
-      <c r="A9" s="63" t="s">
+      <c r="H8" s="57"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>61</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>14</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <f>AVERAGE(G8:G10)</f>
         <v>0.55133333333333334</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>0.222</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="63">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H9" s="67"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="86">
+      <c r="H9" s="57"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="72">
         <v>20</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="72">
         <v>4</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="72">
         <v>31</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80">
+      <c r="E10" s="66"/>
+      <c r="F10" s="66">
         <v>0.44900000000000001</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="67">
         <v>0.56399999999999995</v>
       </c>
-      <c r="H10" s="67"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A11" s="83"/>
-      <c r="B11" s="87">
+      <c r="H10" s="57"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="69"/>
+      <c r="B11" s="73">
         <v>873</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="73">
         <v>27</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="73">
         <v>26</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="70">
         <f>AVERAGE(F11:F13)</f>
         <v>0.5003333333333333</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="70">
         <v>0.91300000000000003</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="71">
         <v>0.94299999999999995</v>
       </c>
-      <c r="H11" s="67"/>
-    </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="63" t="s">
+      <c r="H11" s="57"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>54</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>5</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <f>AVERAGE(G11:G13)</f>
         <v>0.47933333333333333</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>0.184</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="63">
         <v>0.106</v>
       </c>
-      <c r="H12" s="67"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="86">
+      <c r="H12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="72">
         <v>29</v>
       </c>
-      <c r="C13" s="86">
+      <c r="C13" s="72">
         <v>4</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="72">
         <v>21</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80">
+      <c r="E13" s="66"/>
+      <c r="F13" s="66">
         <v>0.40400000000000003</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="67">
         <v>0.38900000000000001</v>
       </c>
-      <c r="H13" s="67"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A14" s="83"/>
-      <c r="B14" s="87">
+      <c r="H13" s="57"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="69"/>
+      <c r="B14" s="73">
         <v>836</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="73">
         <v>36</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="73">
         <v>24</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="70">
         <f>AVERAGE(F14:F16)</f>
         <v>0.51933333333333331</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="70">
         <v>0.91500000000000004</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="71">
         <v>0.93300000000000005</v>
       </c>
-      <c r="H14" s="67"/>
-    </row>
-    <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="63" t="s">
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>58</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>8</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <f>AVERAGE(G14:G16)</f>
         <v>0.52066666666666672</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>0.17399999999999999</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="63">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H15" s="67"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="86">
+      <c r="H15" s="57"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="65"/>
+      <c r="B16" s="72">
         <v>20</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="72">
         <v>2</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="72">
         <v>23</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80">
+      <c r="E16" s="65"/>
+      <c r="F16" s="66">
         <v>0.46899999999999997</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="67">
         <v>0.51100000000000001</v>
       </c>
-      <c r="H16" s="67"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="67"/>
-    </row>
-    <row r="18" spans="1:8" ht="15">
-      <c r="A18" s="63" t="s">
+      <c r="H16" s="57"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="57"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="67"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="67"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="68" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="57"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="57"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="67"/>
-    </row>
-    <row r="21" spans="1:8" ht="15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="68" t="s">
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="57"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="63" t="s">
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="67"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13">
+      <c r="H21" s="57"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10">
         <v>227</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="10">
         <v>13</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>14</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14">
+      <c r="E22" s="10"/>
+      <c r="F22" s="11">
         <v>0.86299999999999999</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="63">
         <v>0.89400000000000002</v>
       </c>
-      <c r="H22" s="67"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="63" t="s">
+      <c r="H22" s="57"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>20</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="10">
         <v>9</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <v>10</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14">
+      <c r="E23" s="10"/>
+      <c r="F23" s="11">
         <v>0.31</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="63">
         <v>0.23100000000000001</v>
       </c>
-      <c r="H23" s="67"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79">
+      <c r="H23" s="57"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="65">
         <v>16</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="65">
         <v>7</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="65">
         <v>24</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80">
+      <c r="E24" s="65"/>
+      <c r="F24" s="66">
         <v>0.5</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="67">
         <v>0.51100000000000001</v>
       </c>
-      <c r="H24" s="67"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="83">
+      <c r="H24" s="57"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="68"/>
+      <c r="B25" s="69">
         <v>197</v>
       </c>
-      <c r="C25" s="83">
+      <c r="C25" s="69">
         <v>10</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="69">
         <v>20</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84">
+      <c r="E25" s="69"/>
+      <c r="F25" s="70">
         <v>0.85299999999999998</v>
       </c>
-      <c r="G25" s="85">
+      <c r="G25" s="71">
         <v>0.86799999999999999</v>
       </c>
-      <c r="H25" s="67"/>
-    </row>
-    <row r="26" spans="1:8" ht="15">
-      <c r="A26" s="63" t="s">
+      <c r="H25" s="57"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <v>14</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="10">
         <v>14</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <v>3</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14">
+      <c r="E26" s="10"/>
+      <c r="F26" s="11">
         <v>0.46700000000000003</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="63">
         <v>0.45200000000000001</v>
       </c>
-      <c r="H26" s="67"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79">
+      <c r="H26" s="57"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="64"/>
+      <c r="B27" s="65">
         <v>20</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="65">
         <v>6</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="65">
         <v>25</v>
       </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80">
+      <c r="E27" s="65"/>
+      <c r="F27" s="66">
         <v>0.52100000000000002</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27" s="67">
         <v>0.49</v>
       </c>
-      <c r="H27" s="67"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83">
+      <c r="H27" s="57"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="68"/>
+      <c r="B28" s="69">
         <v>158</v>
       </c>
-      <c r="C28" s="83">
+      <c r="C28" s="69">
         <v>11</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="69">
         <v>4</v>
       </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84">
+      <c r="E28" s="69"/>
+      <c r="F28" s="70">
         <v>0.91300000000000003</v>
       </c>
-      <c r="G28" s="85">
+      <c r="G28" s="71">
         <v>0.91300000000000003</v>
       </c>
-      <c r="H28" s="67"/>
-    </row>
-    <row r="29" spans="1:8" ht="15">
-      <c r="A29" s="63" t="s">
+      <c r="H28" s="57"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="10">
         <v>12</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="10">
         <v>12</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <v>6</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14">
+      <c r="E29" s="10"/>
+      <c r="F29" s="11">
         <v>0.4</v>
       </c>
-      <c r="G29" s="77">
+      <c r="G29" s="63">
         <v>0.4</v>
       </c>
-      <c r="H29" s="67"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79">
+      <c r="H29" s="57"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64"/>
+      <c r="B30" s="65">
         <v>3</v>
       </c>
-      <c r="C30" s="79">
+      <c r="C30" s="65">
         <v>7</v>
       </c>
-      <c r="D30" s="79">
+      <c r="D30" s="65">
         <v>13</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="80">
+      <c r="E30" s="65"/>
+      <c r="F30" s="66">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="67">
         <v>0.56499999999999995</v>
       </c>
-      <c r="H30" s="67"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A31" s="82"/>
-      <c r="B31" s="83">
+      <c r="H30" s="57"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="68"/>
+      <c r="B31" s="69">
         <v>140</v>
       </c>
-      <c r="C31" s="83">
+      <c r="C31" s="69">
         <v>10</v>
       </c>
-      <c r="D31" s="83">
+      <c r="D31" s="69">
         <v>0</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84">
+      <c r="E31" s="69"/>
+      <c r="F31" s="70">
         <v>0.90300000000000002</v>
       </c>
-      <c r="G31" s="85">
+      <c r="G31" s="71">
         <v>0.93300000000000005</v>
       </c>
-      <c r="H31" s="67"/>
-    </row>
-    <row r="32" spans="1:8" ht="15">
-      <c r="A32" s="63" t="s">
+      <c r="H31" s="57"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="10">
         <v>13</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="10">
         <v>21</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14">
+      <c r="E32" s="10"/>
+      <c r="F32" s="11">
         <v>0.65600000000000003</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="63">
         <v>0.58299999999999996</v>
       </c>
-      <c r="H32" s="67"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79">
+      <c r="H32" s="57"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="64"/>
+      <c r="B33" s="65">
         <v>2</v>
       </c>
-      <c r="C33" s="79">
+      <c r="C33" s="65">
         <v>1</v>
       </c>
-      <c r="D33" s="79">
+      <c r="D33" s="65">
         <v>1</v>
       </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80">
+      <c r="E33" s="65"/>
+      <c r="F33" s="66">
         <v>0.33300000000000002</v>
       </c>
-      <c r="G33" s="81">
+      <c r="G33" s="67">
         <v>0.25</v>
       </c>
-      <c r="H33" s="67"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83">
+      <c r="H33" s="57"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="68"/>
+      <c r="B34" s="69">
         <v>139</v>
       </c>
-      <c r="C34" s="83">
+      <c r="C34" s="69">
         <v>1</v>
       </c>
-      <c r="D34" s="83">
+      <c r="D34" s="69">
         <v>3</v>
       </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84">
+      <c r="E34" s="69"/>
+      <c r="F34" s="70">
         <v>0.92100000000000004</v>
       </c>
-      <c r="G34" s="85">
+      <c r="G34" s="71">
         <v>0.97199999999999998</v>
       </c>
-      <c r="H34" s="67"/>
-    </row>
-    <row r="35" spans="1:8" ht="15">
-      <c r="A35" s="63" t="s">
+      <c r="H34" s="57"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="10">
         <v>10</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="10">
         <v>13</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="10">
         <v>2</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14">
+      <c r="E35" s="10"/>
+      <c r="F35" s="11">
         <v>0.81299999999999994</v>
       </c>
-      <c r="G35" s="77">
+      <c r="G35" s="63">
         <v>0.52</v>
       </c>
-      <c r="H35" s="67"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79">
+      <c r="H35" s="57"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="64"/>
+      <c r="B36" s="65">
         <v>2</v>
       </c>
-      <c r="C36" s="79">
+      <c r="C36" s="65">
         <v>2</v>
       </c>
-      <c r="D36" s="79">
+      <c r="D36" s="65">
         <v>1</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80">
+      <c r="E36" s="65"/>
+      <c r="F36" s="66">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G36" s="81">
+      <c r="G36" s="67">
         <v>0.2</v>
       </c>
-      <c r="H36" s="67"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83">
+      <c r="H36" s="57"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="68"/>
+      <c r="B37" s="69">
         <v>104</v>
       </c>
-      <c r="C37" s="83">
+      <c r="C37" s="69">
         <v>6</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="69">
         <v>2</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84">
+      <c r="E37" s="69"/>
+      <c r="F37" s="70">
         <v>0.93700000000000006</v>
       </c>
-      <c r="G37" s="85">
+      <c r="G37" s="71">
         <v>0.92900000000000005</v>
       </c>
-      <c r="H37" s="67"/>
-    </row>
-    <row r="38" spans="1:8" ht="15">
-      <c r="A38" s="63" t="s">
+      <c r="H37" s="57"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="10">
         <v>6</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="10">
         <v>9</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="10">
         <v>0</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14">
+      <c r="E38" s="10"/>
+      <c r="F38" s="11">
         <v>0.56299999999999994</v>
       </c>
-      <c r="G38" s="77">
+      <c r="G38" s="63">
         <v>0.6</v>
       </c>
-      <c r="H38" s="67"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A39" s="78"/>
-      <c r="B39" s="79">
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="64"/>
+      <c r="B39" s="65">
         <v>1</v>
       </c>
-      <c r="C39" s="79">
+      <c r="C39" s="65">
         <v>1</v>
       </c>
-      <c r="D39" s="79">
+      <c r="D39" s="65">
         <v>4</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="80">
+      <c r="E39" s="65"/>
+      <c r="F39" s="66">
         <v>0.66700000000000004</v>
       </c>
-      <c r="G39" s="81">
+      <c r="G39" s="67">
         <v>0.66700000000000004</v>
       </c>
-      <c r="H39" s="67"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickTop="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="67"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A41" s="63" t="s">
+      <c r="H39" s="57"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="57"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="67"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4676,11 +4705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.69921875" style="6" customWidth="1"/>
     <col min="2" max="6" width="6.59765625" style="6" customWidth="1"/>
@@ -4688,530 +4717,530 @@
     <col min="8" max="256" width="6.59765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="93"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <v>1539</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>88</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <f>(B2+C3)/SUM(B2:C3)</f>
         <v>0.85745375408052227</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>0.89800000000000002</v>
       </c>
-      <c r="F2" s="94">
+      <c r="F2" s="80">
         <v>0.94599999999999995</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17">
         <v>174</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>37</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20">
+      <c r="D3" s="18"/>
+      <c r="E3" s="17">
         <v>0.29599999999999999</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>1535</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="21">
         <v>92</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <f>(B4+C5)/SUM(B4:C5)</f>
         <v>0.86088379705400986</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>0.90400000000000003</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="82">
         <v>0.92300000000000004</v>
       </c>
-      <c r="G4" s="91"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+      <c r="G4" s="77"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>163</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>43</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20">
+      <c r="D5" s="18"/>
+      <c r="E5" s="17">
         <v>0.31900000000000001</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G5" s="62"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A6" s="95" t="s">
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>858</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>65</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <f>(B6+C7)/SUM(B6:C7)</f>
         <v>0.86914995224450808</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>0.92300000000000004</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="82">
         <v>0.93</v>
       </c>
-      <c r="G6" s="62"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20">
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
         <v>72</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>52</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20">
+      <c r="D7" s="18"/>
+      <c r="E7" s="17">
         <v>0.44400000000000001</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <v>0.41899999999999998</v>
       </c>
-      <c r="G7" s="62"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A8" s="95" t="s">
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>853</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="21">
         <v>59</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <f>(B8+C9)/SUM(B8:C9)</f>
         <v>0.85086042065009559</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>0.89800000000000002</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="82">
         <v>0.93500000000000005</v>
       </c>
-      <c r="G8" s="62"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20">
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
         <v>97</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>37</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="20">
+      <c r="D9" s="18"/>
+      <c r="E9" s="17">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A10" s="95" t="s">
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>851</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="21">
         <v>75</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <f>(B10+C11)/SUM(B10:C11)</f>
         <v>0.85468451242829824</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>0.91700000000000004</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="82">
         <v>0.91900000000000004</v>
       </c>
-      <c r="G10" s="62"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20">
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <v>77</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>43</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20">
+      <c r="D11" s="18"/>
+      <c r="E11" s="17">
         <v>0.36399999999999999</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="25">
         <v>0.35799999999999998</v>
       </c>
-      <c r="G11" s="62"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A12" s="95" t="s">
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>844</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="21">
         <v>52</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <f>(B12+C13)/SUM(B12:C13)</f>
         <v>0.85926660059464821</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>0.90400000000000003</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="82">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G12" s="62"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20">
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
         <v>90</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>23</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17">
         <v>0.307</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="25">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G13" s="62"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A14" s="45" t="s">
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="62"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="62"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="52"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="52"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="39" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="90"/>
+      <c r="D17" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="30">
         <v>230</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <v>24</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="89">
+      <c r="D18" s="30"/>
+      <c r="E18" s="75">
         <v>0.85799999999999998</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="30">
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36">
+    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33">
         <v>38</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="33">
         <v>48</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="33">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" thickTop="1">
-      <c r="A20" s="99" t="s">
+    <row r="20" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="100">
+      <c r="B20" s="86">
         <v>186</v>
       </c>
-      <c r="C20" s="100">
+      <c r="C20" s="86">
         <v>41</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100">
+      <c r="D20" s="86"/>
+      <c r="E20" s="86">
         <v>0.84499999999999997</v>
       </c>
-      <c r="F20" s="100">
+      <c r="F20" s="86">
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36">
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33">
         <v>34</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="33">
         <v>48</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33">
         <v>0.53900000000000003</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="33">
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" thickTop="1">
-      <c r="A22" s="99" t="s">
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="100">
+      <c r="B22" s="86">
         <v>159</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="86">
         <v>14</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100">
+      <c r="D22" s="86"/>
+      <c r="E22" s="86">
         <v>0.89300000000000002</v>
       </c>
-      <c r="F22" s="100">
+      <c r="F22" s="86">
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36">
+    <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33">
         <v>19</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="33">
         <v>34</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="33">
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" thickTop="1">
-      <c r="A24" s="99" t="s">
+    <row r="24" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="100">
+      <c r="B24" s="86">
         <v>143</v>
       </c>
-      <c r="C24" s="100">
+      <c r="C24" s="86">
         <v>7</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100">
+      <c r="D24" s="86"/>
+      <c r="E24" s="86">
         <v>0.89400000000000002</v>
       </c>
-      <c r="F24" s="100">
+      <c r="F24" s="86">
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36">
+    <row r="25" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33">
         <v>17</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="33">
         <v>23</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33">
         <v>0.76700000000000002</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="33">
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" thickTop="1">
-      <c r="A26" s="99" t="s">
+    <row r="26" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="100">
+      <c r="B26" s="86">
         <v>134</v>
       </c>
-      <c r="C26" s="100">
+      <c r="C26" s="86">
         <v>9</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100">
+      <c r="D26" s="86"/>
+      <c r="E26" s="86">
         <v>0.89300000000000002</v>
       </c>
-      <c r="F26" s="100">
+      <c r="F26" s="86">
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36">
+    <row r="27" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33">
         <v>16</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="33">
         <v>14</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33">
         <v>0.60899999999999999</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="33">
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" thickTop="1">
-      <c r="A28" s="99" t="s">
+    <row r="28" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="100">
+      <c r="B28" s="86">
         <v>104</v>
       </c>
-      <c r="C28" s="100">
+      <c r="C28" s="86">
         <v>8</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100">
+      <c r="D28" s="86"/>
+      <c r="E28" s="86">
         <v>0.90400000000000003</v>
       </c>
-      <c r="F28" s="100">
+      <c r="F28" s="86">
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36">
+    <row r="29" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33">
         <v>11</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="33">
         <v>10</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="33">
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" thickTop="1">
-      <c r="A30" s="98" t="s">
+    <row r="30" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5224,4 +5253,688 @@
     <oddFooter>&amp;"Helvetica,Regular"&amp;11&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="101"/>
+      <c r="B2" s="103">
+        <v>227</v>
+      </c>
+      <c r="C2" s="103">
+        <v>16</v>
+      </c>
+      <c r="D2" s="103">
+        <v>17</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103">
+        <v>0.86</v>
+      </c>
+      <c r="G2" s="103">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="103">
+        <v>22</v>
+      </c>
+      <c r="C3" s="103">
+        <v>9</v>
+      </c>
+      <c r="D3" s="103">
+        <v>4</v>
+      </c>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103">
+        <v>0.36</v>
+      </c>
+      <c r="G3" s="103">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106">
+        <v>15</v>
+      </c>
+      <c r="C4" s="106">
+        <v>0</v>
+      </c>
+      <c r="D4" s="106">
+        <v>39</v>
+      </c>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106">
+        <v>0.65</v>
+      </c>
+      <c r="G4" s="106">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="107"/>
+      <c r="B5" s="108">
+        <v>216</v>
+      </c>
+      <c r="C5" s="108">
+        <v>8</v>
+      </c>
+      <c r="D5" s="108">
+        <v>17</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G5" s="108">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="103">
+        <v>21</v>
+      </c>
+      <c r="C6" s="103">
+        <v>6</v>
+      </c>
+      <c r="D6" s="103">
+        <v>4</v>
+      </c>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G6" s="103">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="105"/>
+      <c r="B7" s="106">
+        <v>15</v>
+      </c>
+      <c r="C7" s="106">
+        <v>4</v>
+      </c>
+      <c r="D7" s="106">
+        <v>24</v>
+      </c>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="G7" s="106">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="107"/>
+      <c r="B8" s="108">
+        <v>179</v>
+      </c>
+      <c r="C8" s="108">
+        <v>3</v>
+      </c>
+      <c r="D8" s="108">
+        <v>14</v>
+      </c>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108">
+        <v>0.873</v>
+      </c>
+      <c r="G8" s="108">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="103">
+        <v>13</v>
+      </c>
+      <c r="C9" s="103">
+        <v>9</v>
+      </c>
+      <c r="D9" s="103">
+        <v>2</v>
+      </c>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="G9" s="103">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="105"/>
+      <c r="B10" s="106">
+        <v>13</v>
+      </c>
+      <c r="C10" s="106">
+        <v>1</v>
+      </c>
+      <c r="D10" s="106">
+        <v>26</v>
+      </c>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="G10" s="106">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="107"/>
+      <c r="B11" s="108">
+        <v>149</v>
+      </c>
+      <c r="C11" s="108">
+        <v>9</v>
+      </c>
+      <c r="D11" s="108">
+        <v>8</v>
+      </c>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G11" s="108">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="103">
+        <v>11</v>
+      </c>
+      <c r="C12" s="103">
+        <v>18</v>
+      </c>
+      <c r="D12" s="103">
+        <v>4</v>
+      </c>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G12" s="103">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105"/>
+      <c r="B13" s="106">
+        <v>6</v>
+      </c>
+      <c r="C13" s="106">
+        <v>0</v>
+      </c>
+      <c r="D13" s="106">
+        <v>4</v>
+      </c>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="106">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="107"/>
+      <c r="B14" s="108">
+        <v>150</v>
+      </c>
+      <c r="C14" s="108">
+        <v>8</v>
+      </c>
+      <c r="D14" s="108">
+        <v>2</v>
+      </c>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G14" s="108">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="103">
+        <v>7</v>
+      </c>
+      <c r="C15" s="103">
+        <v>18</v>
+      </c>
+      <c r="D15" s="103">
+        <v>0</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="G15" s="103">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="105"/>
+      <c r="B16" s="106">
+        <v>3</v>
+      </c>
+      <c r="C16" s="106">
+        <v>0</v>
+      </c>
+      <c r="D16" s="106">
+        <v>3</v>
+      </c>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="107"/>
+      <c r="B17" s="108">
+        <v>117</v>
+      </c>
+      <c r="C17" s="108">
+        <v>2</v>
+      </c>
+      <c r="D17" s="108">
+        <v>4</v>
+      </c>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G17" s="108">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="103">
+        <v>7</v>
+      </c>
+      <c r="C18" s="103">
+        <v>11</v>
+      </c>
+      <c r="D18" s="103">
+        <v>1</v>
+      </c>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G18" s="103">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105"/>
+      <c r="B19" s="106">
+        <v>1</v>
+      </c>
+      <c r="C19" s="106">
+        <v>1</v>
+      </c>
+      <c r="D19" s="106">
+        <v>2</v>
+      </c>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G19" s="106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="107"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="103">
+        <v>235</v>
+      </c>
+      <c r="C2" s="103">
+        <v>25</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F2" s="103">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106">
+        <v>37</v>
+      </c>
+      <c r="C3" s="106">
+        <v>52</v>
+      </c>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F3" s="106">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="108">
+        <v>211</v>
+      </c>
+      <c r="C4" s="108">
+        <v>30</v>
+      </c>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F4" s="108">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+      <c r="B5" s="106">
+        <v>23</v>
+      </c>
+      <c r="C5" s="106">
+        <v>51</v>
+      </c>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106">
+        <v>0.63</v>
+      </c>
+      <c r="F5" s="106">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="108">
+        <v>175</v>
+      </c>
+      <c r="C6" s="108">
+        <v>21</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="F6" s="108">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+      <c r="B7" s="106">
+        <v>17</v>
+      </c>
+      <c r="C7" s="106">
+        <v>47</v>
+      </c>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F7" s="106">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="108">
+        <v>153</v>
+      </c>
+      <c r="C8" s="108">
+        <v>13</v>
+      </c>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108">
+        <v>0.89</v>
+      </c>
+      <c r="F8" s="108">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+      <c r="B9" s="106">
+        <v>19</v>
+      </c>
+      <c r="C9" s="106">
+        <v>24</v>
+      </c>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F9" s="106">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="108">
+        <v>151</v>
+      </c>
+      <c r="C10" s="108">
+        <v>9</v>
+      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F10" s="108">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="106"/>
+      <c r="B11" s="106">
+        <v>12</v>
+      </c>
+      <c r="C11" s="106">
+        <v>19</v>
+      </c>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F11" s="106">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="108">
+        <v>115</v>
+      </c>
+      <c r="C12" s="108">
+        <v>8</v>
+      </c>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="F12" s="108">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+      <c r="B13" s="106">
+        <v>7</v>
+      </c>
+      <c r="C13" s="106">
+        <v>16</v>
+      </c>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F13" s="106">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/completo/TestPrecision.xlsx
+++ b/data/completo/TestPrecision.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NoGravity" sheetId="1" r:id="rId1"/>
@@ -740,6 +740,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,44 +809,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,7 +930,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1250,11 +1249,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-496981536"/>
-        <c:axId val="-496988064"/>
+        <c:axId val="-342441728"/>
+        <c:axId val="-342440096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-496981536"/>
+        <c:axId val="-342441728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1295,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-496988064"/>
+        <c:crossAx val="-342440096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1304,7 +1303,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-496988064"/>
+        <c:axId val="-342440096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1352,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-496981536"/>
+        <c:crossAx val="-342441728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1465,7 +1464,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1785,11 +1783,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-496976640"/>
-        <c:axId val="-496976096"/>
+        <c:axId val="-342434112"/>
+        <c:axId val="-342434656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-496976640"/>
+        <c:axId val="-342434112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1829,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-496976096"/>
+        <c:crossAx val="-342434656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1839,7 +1837,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-496976096"/>
+        <c:axId val="-342434656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1886,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-496976640"/>
+        <c:crossAx val="-342434112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2316,11 +2314,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2825,24 +2823,24 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="37"/>
       <c r="F25" s="38" t="s">
         <v>3</v>
@@ -3265,8 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3584,22 +3582,22 @@
       <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="93"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="47" t="s">
         <v>2</v>
       </c>
@@ -3621,7 +3619,10 @@
       <c r="C19" s="13">
         <v>33</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="14">
+        <f>(B19+C20) / SUM(B19:C20)</f>
+        <v>0.7822349570200573</v>
+      </c>
       <c r="E19" s="13">
         <v>0.84099999999999997</v>
       </c>
@@ -3657,7 +3658,10 @@
       <c r="C21" s="21">
         <v>23</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="22">
+        <f>(B21+C22) / SUM(B21:C22)</f>
+        <v>0.81904761904761902</v>
+      </c>
       <c r="E21" s="21">
         <v>0.86499999999999999</v>
       </c>
@@ -3844,7 +3848,7 @@
     <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;"Helvetica,Regular"&amp;11&amp;P</oddFooter>
   </headerFooter>
@@ -3871,11 +3875,11 @@
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -4266,24 +4270,24 @@
       <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="97"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="109"/>
       <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="10"/>
       <c r="F21" s="53" t="s">
         <v>3</v>
@@ -4705,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4995,21 +4999,21 @@
       <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="29" t="s">
         <v>2</v>
       </c>
@@ -5030,7 +5034,10 @@
       <c r="C18" s="30">
         <v>24</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="31">
+        <f>(B18+C19) / SUM(B18:C19)</f>
+        <v>0.81764705882352939</v>
+      </c>
       <c r="E18" s="75">
         <v>0.85799999999999998</v>
       </c>
@@ -5064,7 +5071,10 @@
       <c r="C20" s="86">
         <v>41</v>
       </c>
-      <c r="D20" s="86"/>
+      <c r="D20" s="86">
+        <f>(B20+C21) / SUM(B20:C21)</f>
+        <v>0.75728155339805825</v>
+      </c>
       <c r="E20" s="86">
         <v>0.84499999999999997</v>
       </c>
@@ -5266,406 +5276,406 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="101" t="s">
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="87" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
-      <c r="B2" s="103">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88">
         <v>227</v>
       </c>
-      <c r="C2" s="103">
+      <c r="C2" s="88">
         <v>16</v>
       </c>
-      <c r="D2" s="103">
+      <c r="D2" s="88">
         <v>17</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103">
+      <c r="E2" s="88"/>
+      <c r="F2" s="88">
         <v>0.86</v>
       </c>
-      <c r="G2" s="103">
+      <c r="G2" s="88">
         <v>0.873</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="103">
+      <c r="B3" s="88">
         <v>22</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="88">
         <v>9</v>
       </c>
-      <c r="D3" s="103">
+      <c r="D3" s="88">
         <v>4</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103">
+      <c r="E3" s="88"/>
+      <c r="F3" s="88">
         <v>0.36</v>
       </c>
-      <c r="G3" s="103">
+      <c r="G3" s="88">
         <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91">
         <v>15</v>
       </c>
-      <c r="C4" s="106">
+      <c r="C4" s="91">
         <v>0</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="91">
         <v>39</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106">
+      <c r="E4" s="91"/>
+      <c r="F4" s="91">
         <v>0.65</v>
       </c>
-      <c r="G4" s="106">
+      <c r="G4" s="91">
         <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93">
         <v>216</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="93">
         <v>8</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="93">
         <v>17</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108">
+      <c r="E5" s="93"/>
+      <c r="F5" s="93">
         <v>0.85699999999999998</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="93">
         <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="103">
+      <c r="B6" s="88">
         <v>21</v>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="88">
         <v>6</v>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="88">
         <v>4</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103">
+      <c r="E6" s="88"/>
+      <c r="F6" s="88">
         <v>0.33300000000000002</v>
       </c>
-      <c r="G6" s="103">
+      <c r="G6" s="88">
         <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
-      <c r="B7" s="106">
+      <c r="A7" s="90"/>
+      <c r="B7" s="91">
         <v>15</v>
       </c>
-      <c r="C7" s="106">
+      <c r="C7" s="91">
         <v>4</v>
       </c>
-      <c r="D7" s="106">
+      <c r="D7" s="91">
         <v>24</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106">
+      <c r="E7" s="91"/>
+      <c r="F7" s="91">
         <v>0.53300000000000003</v>
       </c>
-      <c r="G7" s="106">
+      <c r="G7" s="91">
         <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93">
         <v>179</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="93">
         <v>3</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D8" s="93">
         <v>14</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108">
+      <c r="E8" s="93"/>
+      <c r="F8" s="93">
         <v>0.873</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="93">
         <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="103">
+      <c r="B9" s="88">
         <v>13</v>
       </c>
-      <c r="C9" s="103">
+      <c r="C9" s="88">
         <v>9</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D9" s="88">
         <v>2</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103">
+      <c r="E9" s="88"/>
+      <c r="F9" s="88">
         <v>0.69199999999999995</v>
       </c>
-      <c r="G9" s="103">
+      <c r="G9" s="88">
         <v>0.375</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91">
         <v>13</v>
       </c>
-      <c r="C10" s="106">
+      <c r="C10" s="91">
         <v>1</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="91">
         <v>26</v>
       </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106">
+      <c r="E10" s="91"/>
+      <c r="F10" s="91">
         <v>0.61899999999999999</v>
       </c>
-      <c r="G10" s="106">
+      <c r="G10" s="91">
         <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93">
         <v>149</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="93">
         <v>9</v>
       </c>
-      <c r="D11" s="108">
+      <c r="D11" s="93">
         <v>8</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108">
+      <c r="E11" s="93"/>
+      <c r="F11" s="93">
         <v>0.89800000000000002</v>
       </c>
-      <c r="G11" s="108">
+      <c r="G11" s="93">
         <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="103">
+      <c r="B12" s="88">
         <v>11</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="88">
         <v>18</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="88">
         <v>4</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103">
+      <c r="E12" s="88"/>
+      <c r="F12" s="88">
         <v>0.66700000000000004</v>
       </c>
-      <c r="G12" s="103">
+      <c r="G12" s="88">
         <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="105"/>
-      <c r="B13" s="106">
+      <c r="A13" s="90"/>
+      <c r="B13" s="91">
         <v>6</v>
       </c>
-      <c r="C13" s="106">
+      <c r="C13" s="91">
         <v>0</v>
       </c>
-      <c r="D13" s="106">
+      <c r="D13" s="91">
         <v>4</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106">
+      <c r="E13" s="91"/>
+      <c r="F13" s="91">
         <v>0.25</v>
       </c>
-      <c r="G13" s="106">
+      <c r="G13" s="91">
         <v>0.308</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108">
+      <c r="A14" s="92"/>
+      <c r="B14" s="93">
         <v>150</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="93">
         <v>8</v>
       </c>
-      <c r="D14" s="108">
+      <c r="D14" s="93">
         <v>2</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108">
+      <c r="E14" s="93"/>
+      <c r="F14" s="93">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G14" s="108">
+      <c r="G14" s="93">
         <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="88">
         <v>7</v>
       </c>
-      <c r="C15" s="103">
+      <c r="C15" s="88">
         <v>18</v>
       </c>
-      <c r="D15" s="103">
+      <c r="D15" s="88">
         <v>0</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103">
+      <c r="E15" s="88"/>
+      <c r="F15" s="88">
         <v>0.69199999999999995</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G15" s="88">
         <v>0.72</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="105"/>
-      <c r="B16" s="106">
+      <c r="A16" s="90"/>
+      <c r="B16" s="91">
         <v>3</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C16" s="91">
         <v>0</v>
       </c>
-      <c r="D16" s="106">
+      <c r="D16" s="91">
         <v>3</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106">
+      <c r="E16" s="91"/>
+      <c r="F16" s="91">
         <v>0.6</v>
       </c>
-      <c r="G16" s="106">
+      <c r="G16" s="91">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108">
+      <c r="A17" s="92"/>
+      <c r="B17" s="93">
         <v>117</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="93">
         <v>2</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="93">
         <v>4</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108">
+      <c r="E17" s="93"/>
+      <c r="F17" s="93">
         <v>0.93600000000000005</v>
       </c>
-      <c r="G17" s="108">
+      <c r="G17" s="93">
         <v>0.95099999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="103">
+      <c r="B18" s="88">
         <v>7</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="88">
         <v>11</v>
       </c>
-      <c r="D18" s="103">
+      <c r="D18" s="88">
         <v>1</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103">
+      <c r="E18" s="88"/>
+      <c r="F18" s="88">
         <v>0.78600000000000003</v>
       </c>
-      <c r="G18" s="103">
+      <c r="G18" s="88">
         <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106">
+      <c r="A19" s="90"/>
+      <c r="B19" s="91">
         <v>1</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="91">
         <v>1</v>
       </c>
-      <c r="D19" s="106">
+      <c r="D19" s="91">
         <v>2</v>
       </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106">
+      <c r="E19" s="91"/>
+      <c r="F19" s="91">
         <v>0.28599999999999998</v>
       </c>
-      <c r="G19" s="106">
+      <c r="G19" s="91">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -5690,244 +5700,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="101" t="s">
+      <c r="C1" s="110"/>
+      <c r="D1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="87" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="103">
+      <c r="B2" s="88">
         <v>235</v>
       </c>
-      <c r="C2" s="103">
+      <c r="C2" s="88">
         <v>25</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88">
         <v>0.86399999999999999</v>
       </c>
-      <c r="F2" s="103">
+      <c r="F2" s="88">
         <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91">
         <v>37</v>
       </c>
-      <c r="C3" s="106">
+      <c r="C3" s="91">
         <v>52</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="91">
         <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="108">
+      <c r="B4" s="93">
         <v>211</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="93">
         <v>30</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108">
+      <c r="D4" s="93"/>
+      <c r="E4" s="93">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="93">
         <v>0.876</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106">
+      <c r="A5" s="91"/>
+      <c r="B5" s="91">
         <v>23</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="91">
         <v>51</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106">
+      <c r="D5" s="91"/>
+      <c r="E5" s="91">
         <v>0.63</v>
       </c>
-      <c r="F5" s="106">
+      <c r="F5" s="91">
         <v>0.68899999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="108">
+      <c r="B6" s="93">
         <v>175</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="93">
         <v>21</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108">
+      <c r="D6" s="93"/>
+      <c r="E6" s="93">
         <v>0.91100000000000003</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F6" s="93">
         <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91">
         <v>17</v>
       </c>
-      <c r="C7" s="106">
+      <c r="C7" s="91">
         <v>47</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106">
+      <c r="D7" s="91"/>
+      <c r="E7" s="91">
         <v>0.69099999999999995</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="91">
         <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="108">
+      <c r="B8" s="93">
         <v>153</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="93">
         <v>13</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108">
+      <c r="D8" s="93"/>
+      <c r="E8" s="93">
         <v>0.89</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F8" s="93">
         <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106">
+      <c r="A9" s="91"/>
+      <c r="B9" s="91">
         <v>19</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9" s="91">
         <v>24</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106">
+      <c r="D9" s="91"/>
+      <c r="E9" s="91">
         <v>0.64900000000000002</v>
       </c>
-      <c r="F9" s="106">
+      <c r="F9" s="91">
         <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="93">
         <v>151</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="93">
         <v>9</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108">
+      <c r="D10" s="93"/>
+      <c r="E10" s="93">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F10" s="93">
         <v>0.94399999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106">
+      <c r="A11" s="91"/>
+      <c r="B11" s="91">
         <v>12</v>
       </c>
-      <c r="C11" s="106">
+      <c r="C11" s="91">
         <v>19</v>
       </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106">
+      <c r="D11" s="91"/>
+      <c r="E11" s="91">
         <v>0.67900000000000005</v>
       </c>
-      <c r="F11" s="106">
+      <c r="F11" s="91">
         <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="93">
         <v>115</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="93">
         <v>8</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108">
+      <c r="D12" s="93"/>
+      <c r="E12" s="93">
         <v>0.94299999999999995</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F12" s="93">
         <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106">
+      <c r="A13" s="91"/>
+      <c r="B13" s="91">
         <v>7</v>
       </c>
-      <c r="C13" s="106">
+      <c r="C13" s="91">
         <v>16</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106">
+      <c r="D13" s="91"/>
+      <c r="E13" s="91">
         <v>0.66700000000000004</v>
       </c>
-      <c r="F13" s="106">
+      <c r="F13" s="91">
         <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
